--- a/data/d2.xlsx
+++ b/data/d2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eledah\Documents\Uni\tpmaxflow-py\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB26A469-116F-47CD-AA49-F50F6E389D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0312A49-D49E-415C-98F2-7188C2F6AF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-3000401]0"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,7 +500,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -859,23 +856,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>6</v>
       </c>
       <c r="B1" s="1">
         <v>8</v>
       </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -886,7 +889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -897,7 +900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -908,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -919,7 +922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -930,7 +933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -941,7 +944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -952,7 +955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
